--- a/DRE/cap08-BasesDeDatos/IPT_ACRM_BD13-StrategyandForecast_150522.xlsx
+++ b/DRE/cap08-BasesDeDatos/IPT_ACRM_BD13-StrategyandForecast_150522.xlsx
@@ -72,9 +72,6 @@
     <t>NOTAS EXPLICATIVAS</t>
   </si>
   <si>
-    <t>TB Países [Country Name]</t>
-  </si>
-  <si>
     <t>Competitors</t>
   </si>
   <si>
@@ -250,6 +247,9 @@
   <si>
     <t>BD1 Companies
 [Company ID+Name]</t>
+  </si>
+  <si>
+    <t>BD4 Countries [Country Name]</t>
   </si>
 </sst>
 </file>
@@ -535,6 +535,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -542,9 +545,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -855,8 +855,8 @@
   <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G25" sqref="A1:G25"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -900,187 +900,187 @@
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="34"/>
+      <c r="G2" s="31"/>
     </row>
     <row r="3" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="34"/>
+      <c r="G3" s="31"/>
     </row>
     <row r="4" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="34" t="s">
-        <v>22</v>
+      <c r="G4" s="31" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="31" t="s">
         <v>67</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="34" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
       <c r="B6" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
       <c r="B7" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
       <c r="B8" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
       <c r="B9" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
       <c r="B12" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -1089,215 +1089,215 @@
     <row r="13" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
       <c r="B13" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G13" s="30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="B14" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G14" s="30"/>
     </row>
-    <row r="15" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
       <c r="B15" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G15" s="30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
       <c r="B16" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G16" s="30"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
       <c r="B17" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
       <c r="B18" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A19" s="5"/>
       <c r="B19" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="5"/>
       <c r="B20" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G20" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
       <c r="B21" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G21" s="30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
       <c r="B22" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G22" s="30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A23" s="5"/>
       <c r="B23" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G23" s="30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="5"/>
       <c r="B24" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G24" s="30"/>
     </row>
     <row r="25" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A25" s="5"/>
       <c r="B25" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G25" s="30"/>
     </row>
@@ -1306,10 +1306,10 @@
       <c r="C26" s="22"/>
     </row>
     <row r="27" spans="1:8" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="31" t="s">
+      <c r="A27" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="31"/>
+      <c r="B27" s="32"/>
       <c r="D27" s="1"/>
       <c r="G27" s="6"/>
       <c r="H27" s="3"/>
@@ -1349,37 +1349,37 @@
       <c r="H31" s="24"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B32" s="32" t="s">
+      <c r="B32" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="33"/>
       <c r="H32" s="24"/>
     </row>
     <row r="33" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" s="12"/>
+      <c r="D33" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="C33" s="12"/>
-      <c r="D33" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34"/>
       <c r="H33" s="24"/>
     </row>
     <row r="34" spans="2:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C34" s="12"/>
-      <c r="D34" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="E34" s="33"/>
-      <c r="F34" s="33"/>
+      <c r="D34" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="E34" s="34"/>
+      <c r="F34" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="4">
